--- a/DATA_CATALOGS/KeyWords_Xlsx/mgpt_KeyWords_MAKE.xlsx
+++ b/DATA_CATALOGS/KeyWords_Xlsx/mgpt_KeyWords_MAKE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolkhovskiydmitriy/CORE_PROJECTS/llm_MaxGPT/DATA_CATALOGS/KeyWords_Xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D6A35-D1FF-3E49-B4FB-D900D7280A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FE2CC-078E-7A42-ABE1-9C1A9D4B7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="KeyWords_MAKE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeyWords_MAKE!$B$1:$D$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeyWords_MAKE!$B$1:$D$387</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="767">
   <si>
     <t>len_str</t>
   </si>
@@ -1968,9 +1968,6 @@
     <t>landwind</t>
   </si>
   <si>
-    <t>li</t>
-  </si>
-  <si>
     <t>lincoln</t>
   </si>
   <si>
@@ -2335,6 +2332,9 @@
   </si>
   <si>
     <t>mark-2253</t>
+  </si>
+  <si>
+    <t>танк</t>
   </si>
 </sst>
 </file>
@@ -2858,10 +2858,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3217,11 +3216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H386"/>
+  <dimension ref="A1:H387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3254,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3278,12 +3277,12 @@
         <v>578</v>
       </c>
       <c r="H2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>LEN(D3)</f>
+        <f t="shared" ref="A3:A10" si="0">LEN(D3)</f>
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -3302,36 +3301,36 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>LEN(D4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>LEN(D5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -3350,12 +3349,12 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>LEN(D6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -3374,12 +3373,12 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>LEN(D7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B7" t="s">
@@ -3398,12 +3397,12 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>LEN(D8)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -3422,12 +3421,12 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>LEN(D9)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -3446,12 +3445,12 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>LEN(D10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -3470,7 +3469,7 @@
         <v>533</v>
       </c>
       <c r="H10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,7 +3493,7 @@
         <v>603</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3518,7 +3517,7 @@
         <v>595</v>
       </c>
       <c r="H12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3542,7 +3541,7 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3566,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3590,7 +3589,7 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,7 +3613,7 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3638,7 +3637,7 @@
         <v>586</v>
       </c>
       <c r="H17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3662,12 +3661,12 @@
         <v>591</v>
       </c>
       <c r="H18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>LEN(D19)</f>
+        <f t="shared" ref="A19:A30" si="1">LEN(D19)</f>
         <v>12</v>
       </c>
       <c r="B19" t="s">
@@ -3683,15 +3682,15 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>LEN(D20)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B20" t="s">
@@ -3710,12 +3709,12 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>LEN(D21)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B21" t="s">
@@ -3734,12 +3733,12 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>LEN(D22)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B22" t="s">
@@ -3758,12 +3757,12 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>LEN(D23)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B23" t="s">
@@ -3782,12 +3781,12 @@
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>LEN(D24)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B24" t="s">
@@ -3806,12 +3805,12 @@
         <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>LEN(D25)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B25" t="s">
@@ -3830,12 +3829,12 @@
         <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>LEN(D26)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B26" t="s">
@@ -3854,12 +3853,12 @@
         <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>LEN(D27)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B27" t="s">
@@ -3878,12 +3877,12 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>LEN(D28)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B28" t="s">
@@ -3899,15 +3898,15 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>LEN(D29)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B29" t="s">
@@ -3923,34 +3922,34 @@
         <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>LEN(D30)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3959,13 +3958,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3974,12 +3973,12 @@
         <v>522</v>
       </c>
       <c r="H31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>LEN(D32)</f>
+        <f t="shared" ref="A32:A59" si="2">LEN(D32)</f>
         <v>10</v>
       </c>
       <c r="B32" t="s">
@@ -3998,12 +3997,12 @@
         <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>LEN(D33)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B33" t="s">
@@ -4022,12 +4021,12 @@
         <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>LEN(D34)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B34" t="s">
@@ -4046,12 +4045,12 @@
         <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f>LEN(D35)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B35" t="s">
@@ -4070,12 +4069,12 @@
         <v>58</v>
       </c>
       <c r="H35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f>LEN(D36)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B36" t="s">
@@ -4094,12 +4093,12 @@
         <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f>LEN(D37)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B37" t="s">
@@ -4118,12 +4117,12 @@
         <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f>LEN(D38)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B38" t="s">
@@ -4142,12 +4141,12 @@
         <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>LEN(D39)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B39" t="s">
@@ -4166,12 +4165,12 @@
         <v>68</v>
       </c>
       <c r="H39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>LEN(D40)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B40" t="s">
@@ -4190,12 +4189,12 @@
         <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>LEN(D41)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B41" t="s">
@@ -4214,12 +4213,12 @@
         <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>LEN(D42)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B42" t="s">
@@ -4238,12 +4237,12 @@
         <v>53</v>
       </c>
       <c r="H42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f>LEN(D43)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B43" t="s">
@@ -4262,12 +4261,12 @@
         <v>70</v>
       </c>
       <c r="H43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>LEN(D44)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B44" t="s">
@@ -4283,15 +4282,15 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H44" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>LEN(D45)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B45" t="s">
@@ -4310,12 +4309,12 @@
         <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>LEN(D46)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B46" t="s">
@@ -4334,12 +4333,12 @@
         <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>LEN(D47)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B47" t="s">
@@ -4358,12 +4357,12 @@
         <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f>LEN(D48)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B48" t="s">
@@ -4382,12 +4381,12 @@
         <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>LEN(D49)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B49" t="s">
@@ -4406,12 +4405,12 @@
         <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>LEN(D50)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B50" t="s">
@@ -4430,12 +4429,12 @@
         <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f>LEN(D51)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B51" t="s">
@@ -4454,12 +4453,12 @@
         <v>101</v>
       </c>
       <c r="H51" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f>LEN(D52)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B52" t="s">
@@ -4478,12 +4477,12 @@
         <v>103</v>
       </c>
       <c r="H52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f>LEN(D53)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B53" t="s">
@@ -4502,12 +4501,12 @@
         <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f>LEN(D54)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B54" t="s">
@@ -4526,12 +4525,12 @@
         <v>105</v>
       </c>
       <c r="H54" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f>LEN(D55)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B55" t="s">
@@ -4550,12 +4549,12 @@
         <v>114</v>
       </c>
       <c r="H55" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f>LEN(D56)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B56" t="s">
@@ -4574,12 +4573,12 @@
         <v>116</v>
       </c>
       <c r="H56" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f>LEN(D57)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B57" t="s">
@@ -4598,12 +4597,12 @@
         <v>118</v>
       </c>
       <c r="H57" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f>LEN(D58)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B58" t="s">
@@ -4622,12 +4621,12 @@
         <v>523</v>
       </c>
       <c r="H58" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f>LEN(D59)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B59" t="s">
@@ -4646,7 +4645,7 @@
         <v>523</v>
       </c>
       <c r="H59" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4670,7 +4669,7 @@
         <v>605</v>
       </c>
       <c r="H60" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4694,12 +4693,12 @@
         <v>591</v>
       </c>
       <c r="H61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>LEN(D62)</f>
+        <f t="shared" ref="A62:A88" si="3">LEN(D62)</f>
         <v>8</v>
       </c>
       <c r="B62" t="s">
@@ -4718,12 +4717,12 @@
         <v>121</v>
       </c>
       <c r="H62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f>LEN(D63)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B63" t="s">
@@ -4742,12 +4741,12 @@
         <v>123</v>
       </c>
       <c r="H63" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f>LEN(D64)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B64" t="s">
@@ -4766,12 +4765,12 @@
         <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>LEN(D65)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B65" t="s">
@@ -4790,12 +4789,12 @@
         <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f>LEN(D66)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B66" t="s">
@@ -4814,12 +4813,12 @@
         <v>130</v>
       </c>
       <c r="H66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>LEN(D67)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B67" t="s">
@@ -4838,12 +4837,12 @@
         <v>133</v>
       </c>
       <c r="H67" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>LEN(D68)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B68" t="s">
@@ -4862,12 +4861,12 @@
         <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>LEN(D69)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B69" t="s">
@@ -4886,12 +4885,12 @@
         <v>138</v>
       </c>
       <c r="H69" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>LEN(D70)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B70" t="s">
@@ -4910,12 +4909,12 @@
         <v>139</v>
       </c>
       <c r="H70" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>LEN(D71)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B71" t="s">
@@ -4934,12 +4933,12 @@
         <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>LEN(D72)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B72" t="s">
@@ -4958,12 +4957,12 @@
         <v>141</v>
       </c>
       <c r="H72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f>LEN(D73)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B73" t="s">
@@ -4982,12 +4981,12 @@
         <v>142</v>
       </c>
       <c r="H73" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f>LEN(D74)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B74" t="s">
@@ -5006,12 +5005,12 @@
         <v>143</v>
       </c>
       <c r="H74" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f>LEN(D75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B75" t="s">
@@ -5030,12 +5029,12 @@
         <v>145</v>
       </c>
       <c r="H75" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f>LEN(D76)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B76" t="s">
@@ -5054,12 +5053,12 @@
         <v>147</v>
       </c>
       <c r="H76" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f>LEN(D77)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B77" t="s">
@@ -5078,12 +5077,12 @@
         <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f>LEN(D78)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B78" t="s">
@@ -5102,12 +5101,12 @@
         <v>184</v>
       </c>
       <c r="H78" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f>LEN(D79)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B79" t="s">
@@ -5126,12 +5125,12 @@
         <v>188</v>
       </c>
       <c r="H79" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f>LEN(D80)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B80" t="s">
@@ -5150,12 +5149,12 @@
         <v>190</v>
       </c>
       <c r="H80" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f>LEN(D81)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B81" t="s">
@@ -5174,12 +5173,12 @@
         <v>193</v>
       </c>
       <c r="H81" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f>LEN(D82)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B82" t="s">
@@ -5198,12 +5197,12 @@
         <v>196</v>
       </c>
       <c r="H82" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f>LEN(D83)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B83" t="s">
@@ -5222,12 +5221,12 @@
         <v>198</v>
       </c>
       <c r="H83" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f>LEN(D84)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B84" t="s">
@@ -5246,12 +5245,12 @@
         <v>200</v>
       </c>
       <c r="H84" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f>LEN(D85)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B85" t="s">
@@ -5270,12 +5269,12 @@
         <v>203</v>
       </c>
       <c r="H85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f>LEN(D86)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B86" t="s">
@@ -5294,12 +5293,12 @@
         <v>206</v>
       </c>
       <c r="H86" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f>LEN(D87)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B87" t="s">
@@ -5318,12 +5317,12 @@
         <v>178</v>
       </c>
       <c r="H87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f>LEN(D88)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B88" t="s">
@@ -5342,7 +5341,7 @@
         <v>207</v>
       </c>
       <c r="H88" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5366,7 +5365,7 @@
         <v>597</v>
       </c>
       <c r="H89" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5390,7 +5389,7 @@
         <v>601</v>
       </c>
       <c r="H90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5414,12 +5413,12 @@
         <v>604</v>
       </c>
       <c r="H91" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f>LEN(D92)</f>
+        <f t="shared" ref="A92:A115" si="4">LEN(D92)</f>
         <v>8</v>
       </c>
       <c r="B92" t="s">
@@ -5435,15 +5434,15 @@
         <v>8</v>
       </c>
       <c r="G92" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H92" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f>LEN(D93)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B93" t="s">
@@ -5459,15 +5458,15 @@
         <v>8</v>
       </c>
       <c r="G93" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H93" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f>LEN(D94)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B94" t="s">
@@ -5483,15 +5482,15 @@
         <v>8</v>
       </c>
       <c r="G94" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H94" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f>LEN(D95)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B95" t="s">
@@ -5507,87 +5506,87 @@
         <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H95" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f>LEN(D96)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
       <c r="G96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H96" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f>LEN(D97)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
       <c r="G97" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H97" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f>LEN(D98)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
       </c>
       <c r="G98" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H98" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f>LEN(D99)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B99" t="s">
@@ -5606,12 +5605,12 @@
         <v>208</v>
       </c>
       <c r="H99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f>LEN(D100)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B100" t="s">
@@ -5630,12 +5629,12 @@
         <v>209</v>
       </c>
       <c r="H100" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f>LEN(D101)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B101" t="s">
@@ -5654,12 +5653,12 @@
         <v>166</v>
       </c>
       <c r="H101" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f>LEN(D102)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B102" t="s">
@@ -5678,12 +5677,12 @@
         <v>111</v>
       </c>
       <c r="H102" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f>LEN(D103)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B103" t="s">
@@ -5702,12 +5701,12 @@
         <v>161</v>
       </c>
       <c r="H103" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f>LEN(D104)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B104" t="s">
@@ -5726,12 +5725,12 @@
         <v>210</v>
       </c>
       <c r="H104" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f>LEN(D105)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B105" t="s">
@@ -5750,12 +5749,12 @@
         <v>211</v>
       </c>
       <c r="H105" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f>LEN(D106)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B106" t="s">
@@ -5774,12 +5773,12 @@
         <v>213</v>
       </c>
       <c r="H106" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f>LEN(D107)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B107" t="s">
@@ -5798,12 +5797,12 @@
         <v>215</v>
       </c>
       <c r="H107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f>LEN(D108)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B108" t="s">
@@ -5822,12 +5821,12 @@
         <v>217</v>
       </c>
       <c r="H108" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f>LEN(D109)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B109" t="s">
@@ -5846,12 +5845,12 @@
         <v>218</v>
       </c>
       <c r="H109" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f>LEN(D110)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B110" t="s">
@@ -5870,12 +5869,12 @@
         <v>219</v>
       </c>
       <c r="H110" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f>LEN(D111)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B111" t="s">
@@ -5888,18 +5887,18 @@
         <v>100</v>
       </c>
       <c r="E111" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G111" t="s">
         <v>220</v>
       </c>
       <c r="H111" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f>LEN(D112)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B112" t="s">
@@ -5918,12 +5917,12 @@
         <v>235</v>
       </c>
       <c r="H112" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f>LEN(D113)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B113" t="s">
@@ -5942,12 +5941,12 @@
         <v>272</v>
       </c>
       <c r="H113" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f>LEN(D114)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B114" t="s">
@@ -5966,12 +5965,12 @@
         <v>274</v>
       </c>
       <c r="H114" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f>LEN(D115)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B115" t="s">
@@ -5990,7 +5989,7 @@
         <v>276</v>
       </c>
       <c r="H115" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -6014,7 +6013,7 @@
         <v>578</v>
       </c>
       <c r="H116" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -6038,7 +6037,7 @@
         <v>579</v>
       </c>
       <c r="H117" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -6062,12 +6061,12 @@
         <v>600</v>
       </c>
       <c r="H118" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f>LEN(D119)</f>
+        <f t="shared" ref="A119:A127" si="5">LEN(D119)</f>
         <v>7</v>
       </c>
       <c r="B119" t="s">
@@ -6083,15 +6082,15 @@
         <v>8</v>
       </c>
       <c r="G119" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H119" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f>LEN(D120)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B120" t="s">
@@ -6107,15 +6106,15 @@
         <v>8</v>
       </c>
       <c r="G120" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H120" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f>LEN(D121)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B121" t="s">
@@ -6131,15 +6130,15 @@
         <v>8</v>
       </c>
       <c r="G121" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H121" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f>LEN(D122)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B122" t="s">
@@ -6155,130 +6154,130 @@
         <v>8</v>
       </c>
       <c r="G122" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H122" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f>LEN(D123)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
       </c>
       <c r="G123" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H123" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f>LEN(D124)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
       </c>
       <c r="G124" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H124" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f>LEN(D125)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
       </c>
       <c r="G125" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H125" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f>LEN(D126)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C126" t="s">
         <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
       </c>
       <c r="G126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H126" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f>LEN(D127)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
       </c>
       <c r="D127" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="G127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H127" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -6287,13 +6286,13 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C128" t="s">
         <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -6302,7 +6301,7 @@
         <v>520</v>
       </c>
       <c r="H128" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -6311,13 +6310,13 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -6326,7 +6325,7 @@
         <v>521</v>
       </c>
       <c r="H129" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -6335,27 +6334,27 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
+        <v>764</v>
+      </c>
+      <c r="C130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" t="s">
+        <v>764</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
         <v>765</v>
       </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" t="s">
-        <v>765</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130" t="s">
-        <v>766</v>
-      </c>
       <c r="H130" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f>LEN(D131)</f>
+        <f t="shared" ref="A131:A176" si="6">LEN(D131)</f>
         <v>6</v>
       </c>
       <c r="B131" t="s">
@@ -6374,12 +6373,12 @@
         <v>278</v>
       </c>
       <c r="H131" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f>LEN(D132)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B132" t="s">
@@ -6398,12 +6397,12 @@
         <v>280</v>
       </c>
       <c r="H132" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f>LEN(D133)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B133" t="s">
@@ -6422,12 +6421,12 @@
         <v>282</v>
       </c>
       <c r="H133" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f>LEN(D134)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B134" t="s">
@@ -6446,12 +6445,12 @@
         <v>284</v>
       </c>
       <c r="H134" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f>LEN(D135)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B135" t="s">
@@ -6470,12 +6469,12 @@
         <v>240</v>
       </c>
       <c r="H135" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f>LEN(D136)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B136" t="s">
@@ -6494,12 +6493,12 @@
         <v>287</v>
       </c>
       <c r="H136" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f>LEN(D137)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B137" t="s">
@@ -6518,12 +6517,12 @@
         <v>289</v>
       </c>
       <c r="H137" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f>LEN(D138)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B138" t="s">
@@ -6542,12 +6541,12 @@
         <v>290</v>
       </c>
       <c r="H138" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f>LEN(D139)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B139" t="s">
@@ -6566,12 +6565,12 @@
         <v>263</v>
       </c>
       <c r="H139" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f>LEN(D140)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B140" t="s">
@@ -6590,12 +6589,12 @@
         <v>291</v>
       </c>
       <c r="H140" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f>LEN(D141)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B141" t="s">
@@ -6614,12 +6613,12 @@
         <v>253</v>
       </c>
       <c r="H141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f>LEN(D142)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B142" t="s">
@@ -6638,12 +6637,12 @@
         <v>292</v>
       </c>
       <c r="H142" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f>LEN(D143)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B143" t="s">
@@ -6662,12 +6661,12 @@
         <v>244</v>
       </c>
       <c r="H143" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f>LEN(D144)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B144" t="s">
@@ -6686,12 +6685,12 @@
         <v>295</v>
       </c>
       <c r="H144" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f>LEN(D145)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B145" t="s">
@@ -6710,12 +6709,12 @@
         <v>296</v>
       </c>
       <c r="H145" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f>LEN(D146)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B146" t="s">
@@ -6734,12 +6733,12 @@
         <v>298</v>
       </c>
       <c r="H146" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f>LEN(D147)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B147" t="s">
@@ -6758,12 +6757,12 @@
         <v>300</v>
       </c>
       <c r="H147" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f>LEN(D148)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B148" t="s">
@@ -6782,12 +6781,12 @@
         <v>302</v>
       </c>
       <c r="H148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f>LEN(D149)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B149" t="s">
@@ -6806,12 +6805,12 @@
         <v>324</v>
       </c>
       <c r="H149" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f>LEN(D150)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B150" t="s">
@@ -6830,12 +6829,12 @@
         <v>326</v>
       </c>
       <c r="H150" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f>LEN(D151)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B151" t="s">
@@ -6854,12 +6853,12 @@
         <v>328</v>
       </c>
       <c r="H151" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f>LEN(D152)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B152" t="s">
@@ -6878,12 +6877,12 @@
         <v>330</v>
       </c>
       <c r="H152" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f>LEN(D153)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B153" t="s">
@@ -6902,12 +6901,12 @@
         <v>313</v>
       </c>
       <c r="H153" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f>LEN(D154)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B154" t="s">
@@ -6926,12 +6925,12 @@
         <v>331</v>
       </c>
       <c r="H154" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f>LEN(D155)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B155" t="s">
@@ -6950,12 +6949,12 @@
         <v>332</v>
       </c>
       <c r="H155" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f>LEN(D156)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B156" t="s">
@@ -6974,12 +6973,12 @@
         <v>333</v>
       </c>
       <c r="H156" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f>LEN(D157)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B157" t="s">
@@ -6998,12 +6997,12 @@
         <v>318</v>
       </c>
       <c r="H157" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f>LEN(D158)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B158" t="s">
@@ -7022,12 +7021,12 @@
         <v>10</v>
       </c>
       <c r="H158" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f>LEN(D159)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B159" t="s">
@@ -7046,12 +7045,12 @@
         <v>79</v>
       </c>
       <c r="H159" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f>LEN(D160)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B160" t="s">
@@ -7070,12 +7069,12 @@
         <v>370</v>
       </c>
       <c r="H160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <f>LEN(D161)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B161" t="s">
@@ -7094,12 +7093,12 @@
         <v>371</v>
       </c>
       <c r="H161" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f>LEN(D162)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B162" t="s">
@@ -7118,12 +7117,12 @@
         <v>372</v>
       </c>
       <c r="H162" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
-        <f>LEN(D163)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B163" t="s">
@@ -7142,12 +7141,12 @@
         <v>373</v>
       </c>
       <c r="H163" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f>LEN(D164)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B164" t="s">
@@ -7166,12 +7165,12 @@
         <v>374</v>
       </c>
       <c r="H164" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
-        <f>LEN(D165)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B165" t="s">
@@ -7190,12 +7189,12 @@
         <v>375</v>
       </c>
       <c r="H165" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f>LEN(D166)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B166" t="s">
@@ -7214,12 +7213,12 @@
         <v>376</v>
       </c>
       <c r="H166" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
-        <f>LEN(D167)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B167" t="s">
@@ -7238,12 +7237,12 @@
         <v>377</v>
       </c>
       <c r="H167" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
-        <f>LEN(D168)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B168" t="s">
@@ -7262,12 +7261,12 @@
         <v>378</v>
       </c>
       <c r="H168" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
-        <f>LEN(D169)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B169" t="s">
@@ -7286,12 +7285,12 @@
         <v>379</v>
       </c>
       <c r="H169" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
-        <f>LEN(D170)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B170" t="s">
@@ -7310,12 +7309,12 @@
         <v>380</v>
       </c>
       <c r="H170" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
-        <f>LEN(D171)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B171" t="s">
@@ -7334,12 +7333,12 @@
         <v>381</v>
       </c>
       <c r="H171" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
-        <f>LEN(D172)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B172" t="s">
@@ -7358,12 +7357,12 @@
         <v>382</v>
       </c>
       <c r="H172" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
-        <f>LEN(D173)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B173" t="s">
@@ -7382,12 +7381,12 @@
         <v>383</v>
       </c>
       <c r="H173" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
-        <f>LEN(D174)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B174" t="s">
@@ -7406,12 +7405,12 @@
         <v>384</v>
       </c>
       <c r="H174" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
-        <f>LEN(D175)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B175" t="s">
@@ -7430,12 +7429,12 @@
         <v>385</v>
       </c>
       <c r="H175" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
-        <f>LEN(D176)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B176" t="s">
@@ -7454,7 +7453,7 @@
         <v>525</v>
       </c>
       <c r="H176" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -7478,7 +7477,7 @@
         <v>588</v>
       </c>
       <c r="H177" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -7502,7 +7501,7 @@
         <v>595</v>
       </c>
       <c r="H178" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -7526,7 +7525,7 @@
         <v>596</v>
       </c>
       <c r="H179" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -7550,12 +7549,12 @@
         <v>602</v>
       </c>
       <c r="H180" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
-        <f>LEN(D181)</f>
+        <f t="shared" ref="A181:A188" si="7">LEN(D181)</f>
         <v>6</v>
       </c>
       <c r="B181" t="s">
@@ -7574,12 +7573,12 @@
         <v>509</v>
       </c>
       <c r="H181" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
-        <f>LEN(D182)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B182" t="s">
@@ -7595,15 +7594,15 @@
         <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H182" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
-        <f>LEN(D183)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B183" t="s">
@@ -7619,15 +7618,15 @@
         <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H183" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
-        <f>LEN(D184)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B184" t="s">
@@ -7643,15 +7642,15 @@
         <v>8</v>
       </c>
       <c r="G184" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H184" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <f>LEN(D185)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B185" t="s">
@@ -7667,82 +7666,82 @@
         <v>8</v>
       </c>
       <c r="G185" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H185" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <f>LEN(D186)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C186" t="s">
         <v>30</v>
       </c>
       <c r="D186" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E186" t="s">
         <v>8</v>
       </c>
       <c r="G186" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H186" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <f>LEN(D187)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C187" t="s">
         <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E187" t="s">
         <v>8</v>
       </c>
       <c r="G187" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H187" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <f>LEN(D188)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C188" t="s">
         <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
       </c>
       <c r="G188" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H188" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7751,13 +7750,13 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
       </c>
       <c r="D189" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -7766,12 +7765,12 @@
         <v>509</v>
       </c>
       <c r="H189" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <f>LEN(D190)</f>
+        <f t="shared" ref="A190:A221" si="8">LEN(D190)</f>
         <v>5</v>
       </c>
       <c r="B190" t="s">
@@ -7790,12 +7789,12 @@
         <v>386</v>
       </c>
       <c r="H190" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <f>LEN(D191)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B191" t="s">
@@ -7814,12 +7813,12 @@
         <v>387</v>
       </c>
       <c r="H191" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <f>LEN(D192)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B192" t="s">
@@ -7838,12 +7837,12 @@
         <v>388</v>
       </c>
       <c r="H192" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <f>LEN(D193)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B193" t="s">
@@ -7862,12 +7861,12 @@
         <v>389</v>
       </c>
       <c r="H193" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <f>LEN(D194)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B194" t="s">
@@ -7886,12 +7885,12 @@
         <v>390</v>
       </c>
       <c r="H194" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <f>LEN(D195)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B195" t="s">
@@ -7910,12 +7909,12 @@
         <v>391</v>
       </c>
       <c r="H195" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <f>LEN(D196)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B196" t="s">
@@ -7934,12 +7933,12 @@
         <v>392</v>
       </c>
       <c r="H196" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <f>LEN(D197)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B197" t="s">
@@ -7958,12 +7957,12 @@
         <v>393</v>
       </c>
       <c r="H197" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <f>LEN(D198)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B198" t="s">
@@ -7982,12 +7981,12 @@
         <v>394</v>
       </c>
       <c r="H198" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <f>LEN(D199)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B199" t="s">
@@ -8006,12 +8005,12 @@
         <v>395</v>
       </c>
       <c r="H199" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <f>LEN(D200)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B200" t="s">
@@ -8030,12 +8029,12 @@
         <v>396</v>
       </c>
       <c r="H200" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
-        <f>LEN(D201)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B201" t="s">
@@ -8054,12 +8053,12 @@
         <v>397</v>
       </c>
       <c r="H201" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <f>LEN(D202)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B202" t="s">
@@ -8078,12 +8077,12 @@
         <v>398</v>
       </c>
       <c r="H202" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
-        <f>LEN(D203)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B203" t="s">
@@ -8102,12 +8101,12 @@
         <v>399</v>
       </c>
       <c r="H203" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
-        <f>LEN(D204)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B204" t="s">
@@ -8126,12 +8125,12 @@
         <v>400</v>
       </c>
       <c r="H204" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
-        <f>LEN(D205)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B205" t="s">
@@ -8150,12 +8149,12 @@
         <v>401</v>
       </c>
       <c r="H205" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
-        <f>LEN(D206)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B206" t="s">
@@ -8174,12 +8173,12 @@
         <v>402</v>
       </c>
       <c r="H206" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
-        <f>LEN(D207)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B207" t="s">
@@ -8198,12 +8197,12 @@
         <v>403</v>
       </c>
       <c r="H207" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
-        <f>LEN(D208)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B208" t="s">
@@ -8222,12 +8221,12 @@
         <v>404</v>
       </c>
       <c r="H208" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
-        <f>LEN(D209)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B209" t="s">
@@ -8246,12 +8245,12 @@
         <v>405</v>
       </c>
       <c r="H209" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
-        <f>LEN(D210)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B210" t="s">
@@ -8270,12 +8269,12 @@
         <v>406</v>
       </c>
       <c r="H210" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
-        <f>LEN(D211)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B211" t="s">
@@ -8294,12 +8293,12 @@
         <v>407</v>
       </c>
       <c r="H211" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
-        <f>LEN(D212)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B212" t="s">
@@ -8318,12 +8317,12 @@
         <v>408</v>
       </c>
       <c r="H212" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
-        <f>LEN(D213)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B213" t="s">
@@ -8342,12 +8341,12 @@
         <v>409</v>
       </c>
       <c r="H213" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
-        <f>LEN(D214)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B214" t="s">
@@ -8366,12 +8365,12 @@
         <v>410</v>
       </c>
       <c r="H214" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
-        <f>LEN(D215)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B215" t="s">
@@ -8390,12 +8389,12 @@
         <v>411</v>
       </c>
       <c r="H215" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
-        <f>LEN(D216)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B216" t="s">
@@ -8414,12 +8413,12 @@
         <v>412</v>
       </c>
       <c r="H216" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
-        <f>LEN(D217)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B217" t="s">
@@ -8438,12 +8437,12 @@
         <v>413</v>
       </c>
       <c r="H217" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
-        <f>LEN(D218)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B218" t="s">
@@ -8462,12 +8461,12 @@
         <v>414</v>
       </c>
       <c r="H218" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
-        <f>LEN(D219)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B219" t="s">
@@ -8486,12 +8485,12 @@
         <v>415</v>
       </c>
       <c r="H219" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
-        <f>LEN(D220)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B220" t="s">
@@ -8510,12 +8509,12 @@
         <v>416</v>
       </c>
       <c r="H220" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
-        <f>LEN(D221)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B221" t="s">
@@ -8534,12 +8533,12 @@
         <v>417</v>
       </c>
       <c r="H221" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
-        <f>LEN(D222)</f>
+        <f t="shared" ref="A222:A253" si="9">LEN(D222)</f>
         <v>5</v>
       </c>
       <c r="B222" t="s">
@@ -8558,12 +8557,12 @@
         <v>418</v>
       </c>
       <c r="H222" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
-        <f>LEN(D223)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B223" t="s">
@@ -8582,12 +8581,12 @@
         <v>419</v>
       </c>
       <c r="H223" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <f>LEN(D224)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B224" t="s">
@@ -8606,12 +8605,12 @@
         <v>420</v>
       </c>
       <c r="H224" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
-        <f>LEN(D225)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B225" t="s">
@@ -8630,12 +8629,12 @@
         <v>421</v>
       </c>
       <c r="H225" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
-        <f>LEN(D226)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B226" t="s">
@@ -8654,12 +8653,12 @@
         <v>422</v>
       </c>
       <c r="H226" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
-        <f>LEN(D227)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B227" t="s">
@@ -8678,12 +8677,12 @@
         <v>423</v>
       </c>
       <c r="H227" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
-        <f>LEN(D228)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B228" t="s">
@@ -8702,12 +8701,12 @@
         <v>424</v>
       </c>
       <c r="H228" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
-        <f>LEN(D229)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B229" t="s">
@@ -8726,12 +8725,12 @@
         <v>425</v>
       </c>
       <c r="H229" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
-        <f>LEN(D230)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B230" t="s">
@@ -8750,12 +8749,12 @@
         <v>426</v>
       </c>
       <c r="H230" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
-        <f>LEN(D231)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B231" t="s">
@@ -8774,12 +8773,12 @@
         <v>427</v>
       </c>
       <c r="H231" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
-        <f>LEN(D232)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B232" t="s">
@@ -8798,12 +8797,12 @@
         <v>428</v>
       </c>
       <c r="H232" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
-        <f>LEN(D233)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B233" t="s">
@@ -8822,12 +8821,12 @@
         <v>429</v>
       </c>
       <c r="H233" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
-        <f>LEN(D234)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B234" t="s">
@@ -8846,12 +8845,12 @@
         <v>430</v>
       </c>
       <c r="H234" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
-        <f>LEN(D235)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B235" t="s">
@@ -8870,12 +8869,12 @@
         <v>431</v>
       </c>
       <c r="H235" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
-        <f>LEN(D236)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B236" t="s">
@@ -8888,18 +8887,18 @@
         <v>189</v>
       </c>
       <c r="E236" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G236" t="s">
         <v>432</v>
       </c>
       <c r="H236" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
-        <f>LEN(D237)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B237" t="s">
@@ -8912,18 +8911,18 @@
         <v>224</v>
       </c>
       <c r="E237" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G237" t="s">
         <v>433</v>
       </c>
       <c r="H237" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
-        <f>LEN(D238)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B238" t="s">
@@ -8936,18 +8935,18 @@
         <v>259</v>
       </c>
       <c r="E238" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G238" t="s">
         <v>434</v>
       </c>
       <c r="H238" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
-        <f>LEN(D239)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B239" t="s">
@@ -8960,18 +8959,18 @@
         <v>260</v>
       </c>
       <c r="E239" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G239" t="s">
         <v>435</v>
       </c>
       <c r="H239" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
-        <f>LEN(D240)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B240" t="s">
@@ -8990,12 +8989,12 @@
         <v>436</v>
       </c>
       <c r="H240" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
-        <f>LEN(D241)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B241" t="s">
@@ -9014,12 +9013,12 @@
         <v>437</v>
       </c>
       <c r="H241" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
-        <f>LEN(D242)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B242" t="s">
@@ -9038,12 +9037,12 @@
         <v>438</v>
       </c>
       <c r="H242" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
-        <f>LEN(D243)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B243" t="s">
@@ -9062,12 +9061,12 @@
         <v>439</v>
       </c>
       <c r="H243" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
-        <f>LEN(D244)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B244" t="s">
@@ -9086,12 +9085,12 @@
         <v>440</v>
       </c>
       <c r="H244" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
-        <f>LEN(D245)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B245" t="s">
@@ -9110,12 +9109,12 @@
         <v>441</v>
       </c>
       <c r="H245" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
-        <f>LEN(D246)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B246" t="s">
@@ -9134,12 +9133,12 @@
         <v>442</v>
       </c>
       <c r="H246" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
-        <f>LEN(D247)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B247" t="s">
@@ -9158,12 +9157,12 @@
         <v>443</v>
       </c>
       <c r="H247" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
-        <f>LEN(D248)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B248" t="s">
@@ -9182,12 +9181,12 @@
         <v>444</v>
       </c>
       <c r="H248" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
-        <f>LEN(D249)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B249" t="s">
@@ -9206,12 +9205,12 @@
         <v>445</v>
       </c>
       <c r="H249" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
-        <f>LEN(D250)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B250" t="s">
@@ -9230,12 +9229,12 @@
         <v>446</v>
       </c>
       <c r="H250" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <f>LEN(D251)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B251" t="s">
@@ -9254,12 +9253,12 @@
         <v>447</v>
       </c>
       <c r="H251" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
-        <f>LEN(D252)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B252" t="s">
@@ -9278,12 +9277,12 @@
         <v>448</v>
       </c>
       <c r="H252" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
-        <f>LEN(D253)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B253" t="s">
@@ -9302,12 +9301,12 @@
         <v>449</v>
       </c>
       <c r="H253" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
-        <f>LEN(D254)</f>
+        <f t="shared" ref="A254:A261" si="10">LEN(D254)</f>
         <v>5</v>
       </c>
       <c r="B254" t="s">
@@ -9326,12 +9325,12 @@
         <v>450</v>
       </c>
       <c r="H254" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
-        <f>LEN(D255)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B255" t="s">
@@ -9350,12 +9349,12 @@
         <v>451</v>
       </c>
       <c r="H255" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
-        <f>LEN(D256)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B256" t="s">
@@ -9374,12 +9373,12 @@
         <v>509</v>
       </c>
       <c r="H256" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
-        <f>LEN(D257)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B257" t="s">
@@ -9398,12 +9397,12 @@
         <v>521</v>
       </c>
       <c r="H257" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
-        <f>LEN(D258)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B258" t="s">
@@ -9422,12 +9421,12 @@
         <v>523</v>
       </c>
       <c r="H258" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
-        <f>LEN(D259)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B259" t="s">
@@ -9446,12 +9445,12 @@
         <v>526</v>
       </c>
       <c r="H259" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
-        <f>LEN(D260)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B260" t="s">
@@ -9470,12 +9469,12 @@
         <v>527</v>
       </c>
       <c r="H260" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
-        <f>LEN(D261)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -9494,12 +9493,12 @@
         <v>509</v>
       </c>
       <c r="H261" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
-        <f>3*(LEN(D262)-LEN(SUBSTITUTE(D262,"|","")))+LEN(D262)+F262</f>
+        <f t="shared" ref="A262:A269" si="11">3*(LEN(D262)-LEN(SUBSTITUTE(D262,"|","")))+LEN(D262)+F262</f>
         <v>5</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -9518,15 +9517,15 @@
         <v>585</v>
       </c>
       <c r="H262" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
-        <f>3*(LEN(D263)-LEN(SUBSTITUTE(D263,"|","")))+LEN(D263)+F263</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" t="s">
         <v>556</v>
       </c>
       <c r="C263" t="s">
@@ -9542,12 +9541,12 @@
         <v>590</v>
       </c>
       <c r="H263" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
-        <f>3*(LEN(D264)-LEN(SUBSTITUTE(D264,"|","")))+LEN(D264)+F264</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -9566,12 +9565,12 @@
         <v>592</v>
       </c>
       <c r="H264" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
-        <f>3*(LEN(D265)-LEN(SUBSTITUTE(D265,"|","")))+LEN(D265)+F265</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -9590,21 +9589,21 @@
         <v>608</v>
       </c>
       <c r="H265" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
-        <f>3*(LEN(D266)-LEN(SUBSTITUTE(D266,"|","")))+LEN(D266)+F266</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" t="s">
         <v>576</v>
       </c>
       <c r="C266" t="s">
         <v>30</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" t="s">
         <v>577</v>
       </c>
       <c r="E266" t="s">
@@ -9614,12 +9613,12 @@
         <v>609</v>
       </c>
       <c r="H266" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
-        <f>3*(LEN(D267)-LEN(SUBSTITUTE(D267,"|","")))+LEN(D267)+F267</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B267" t="s">
@@ -9638,12 +9637,12 @@
         <v>606</v>
       </c>
       <c r="H267" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
-        <f>3*(LEN(D268)-LEN(SUBSTITUTE(D268,"|","")))+LEN(D268)+F268</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B268" t="s">
@@ -9662,12 +9661,12 @@
         <v>616</v>
       </c>
       <c r="H268" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
-        <f>3*(LEN(D269)-LEN(SUBSTITUTE(D269,"|","")))+LEN(D269)+F269</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B269" t="s">
@@ -9686,12 +9685,12 @@
         <v>616</v>
       </c>
       <c r="H269" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
-        <f>LEN(D270)</f>
+        <f t="shared" ref="A270:A291" si="12">LEN(D270)</f>
         <v>5</v>
       </c>
       <c r="B270" t="s">
@@ -9707,15 +9706,15 @@
         <v>8</v>
       </c>
       <c r="G270" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H270" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
-        <f>LEN(D271)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B271" t="s">
@@ -9731,15 +9730,15 @@
         <v>8</v>
       </c>
       <c r="G271" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H271" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
-        <f>LEN(D272)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B272" t="s">
@@ -9755,15 +9754,15 @@
         <v>8</v>
       </c>
       <c r="G272" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H272" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
-        <f>LEN(D273)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B273" t="s">
@@ -9779,15 +9778,15 @@
         <v>8</v>
       </c>
       <c r="G273" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H273" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
-        <f>LEN(D274)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B274" t="s">
@@ -9803,279 +9802,279 @@
         <v>8</v>
       </c>
       <c r="G274" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H274" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
-        <f>LEN(D275)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B275" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C275" t="s">
         <v>30</v>
       </c>
       <c r="D275" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
       </c>
       <c r="G275" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H275" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
-        <f>LEN(D276)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C276" t="s">
         <v>30</v>
       </c>
       <c r="D276" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
       </c>
       <c r="G276" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H276" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
-        <f>LEN(D277)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B277" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C277" t="s">
         <v>30</v>
       </c>
       <c r="D277" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
       </c>
       <c r="G277" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H277" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
-        <f>LEN(D278)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B278" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C278" t="s">
         <v>30</v>
       </c>
       <c r="D278" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
       </c>
       <c r="G278" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H278" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
-        <f>LEN(D279)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B279" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C279" t="s">
         <v>30</v>
       </c>
       <c r="D279" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
       </c>
       <c r="G279" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H279" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
-        <f>LEN(D280)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C280" t="s">
         <v>30</v>
       </c>
       <c r="D280" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
       </c>
       <c r="G280" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H280" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
-        <f>LEN(D281)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C281" t="s">
         <v>30</v>
       </c>
       <c r="D281" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
       </c>
       <c r="G281" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H281" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
-        <f>LEN(D282)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
       </c>
       <c r="D282" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E282" t="s">
         <v>8</v>
       </c>
       <c r="G282" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H282" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
-        <f>LEN(D283)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C283" t="s">
         <v>30</v>
       </c>
       <c r="D283" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E283" t="s">
         <v>8</v>
       </c>
       <c r="G283" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H283" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
-        <f>LEN(D284)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C284" t="s">
         <v>30</v>
       </c>
       <c r="D284" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E284" t="s">
         <v>8</v>
       </c>
       <c r="G284" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H284" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
-        <f>LEN(D285)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B285" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C285" t="s">
         <v>30</v>
       </c>
       <c r="D285" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E285" t="s">
         <v>8</v>
       </c>
       <c r="G285" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H285" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
-        <f>LEN(D286)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B286" t="s">
@@ -10085,21 +10084,21 @@
         <v>30</v>
       </c>
       <c r="D286" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E286" t="s">
         <v>8</v>
       </c>
       <c r="G286" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H286" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
-        <f>LEN(D287)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B287" t="s">
@@ -10109,21 +10108,21 @@
         <v>30</v>
       </c>
       <c r="D287" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E287" t="s">
         <v>8</v>
       </c>
       <c r="G287" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H287" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
-        <f>LEN(D288)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B288" t="s">
@@ -10133,88 +10132,88 @@
         <v>30</v>
       </c>
       <c r="D288" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
       </c>
       <c r="G288" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H288" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
-        <f>LEN(D289)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B289" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C289" t="s">
         <v>30</v>
       </c>
       <c r="D289" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E289" t="s">
         <v>8</v>
       </c>
       <c r="G289" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H289" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
-        <f>LEN(D290)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B290" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C290" t="s">
         <v>30</v>
       </c>
       <c r="D290" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E290" t="s">
         <v>8</v>
       </c>
       <c r="G290" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H290" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
-        <f>LEN(D291)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B291" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C291" t="s">
         <v>30</v>
       </c>
       <c r="D291" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E291" t="s">
         <v>8</v>
       </c>
       <c r="G291" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H291" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -10223,13 +10222,13 @@
         <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C292" t="s">
         <v>30</v>
       </c>
       <c r="D292" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E292" t="s">
         <v>8</v>
@@ -10238,12 +10237,12 @@
         <v>510</v>
       </c>
       <c r="H292" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
-        <f>LEN(D293)</f>
+        <f t="shared" ref="A293:A336" si="13">LEN(D293)</f>
         <v>5</v>
       </c>
       <c r="B293" t="s">
@@ -10253,7 +10252,7 @@
         <v>30</v>
       </c>
       <c r="D293" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E293" t="s">
         <v>225</v>
@@ -10262,12 +10261,12 @@
         <v>536</v>
       </c>
       <c r="H293" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
-        <f>LEN(D294)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="B294" t="s">
@@ -10277,7 +10276,7 @@
         <v>7</v>
       </c>
       <c r="D294" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E294" t="s">
         <v>8</v>
@@ -10286,12 +10285,12 @@
         <v>510</v>
       </c>
       <c r="H294" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
-        <f>LEN(D295)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B295" t="s">
@@ -10310,12 +10309,12 @@
         <v>452</v>
       </c>
       <c r="H295" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
-        <f>LEN(D296)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B296" t="s">
@@ -10334,12 +10333,12 @@
         <v>453</v>
       </c>
       <c r="H296" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
-        <f>LEN(D297)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B297" t="s">
@@ -10358,12 +10357,12 @@
         <v>454</v>
       </c>
       <c r="H297" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
-        <f>LEN(D298)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B298" t="s">
@@ -10382,12 +10381,12 @@
         <v>455</v>
       </c>
       <c r="H298" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
-        <f>LEN(D299)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B299" t="s">
@@ -10406,12 +10405,12 @@
         <v>456</v>
       </c>
       <c r="H299" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
-        <f>LEN(D300)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B300" t="s">
@@ -10430,12 +10429,12 @@
         <v>457</v>
       </c>
       <c r="H300" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
-        <f>LEN(D301)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B301" t="s">
@@ -10454,12 +10453,12 @@
         <v>458</v>
       </c>
       <c r="H301" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
-        <f>LEN(D302)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B302" t="s">
@@ -10478,12 +10477,12 @@
         <v>459</v>
       </c>
       <c r="H302" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
-        <f>LEN(D303)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B303" t="s">
@@ -10496,18 +10495,18 @@
         <v>288</v>
       </c>
       <c r="E303" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G303" t="s">
         <v>460</v>
       </c>
       <c r="H303" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
-        <f>LEN(D304)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B304" t="s">
@@ -10526,12 +10525,12 @@
         <v>461</v>
       </c>
       <c r="H304" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
-        <f>LEN(D305)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B305" t="s">
@@ -10550,12 +10549,12 @@
         <v>462</v>
       </c>
       <c r="H305" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
-        <f>LEN(D306)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B306" t="s">
@@ -10574,12 +10573,12 @@
         <v>463</v>
       </c>
       <c r="H306" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
-        <f>LEN(D307)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B307" t="s">
@@ -10598,12 +10597,12 @@
         <v>464</v>
       </c>
       <c r="H307" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
-        <f>LEN(D308)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B308" t="s">
@@ -10622,12 +10621,12 @@
         <v>465</v>
       </c>
       <c r="H308" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
-        <f>LEN(D309)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B309" t="s">
@@ -10646,12 +10645,12 @@
         <v>466</v>
       </c>
       <c r="H309" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
-        <f>LEN(D310)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B310" t="s">
@@ -10670,12 +10669,12 @@
         <v>467</v>
       </c>
       <c r="H310" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
-        <f>LEN(D311)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B311" t="s">
@@ -10684,7 +10683,7 @@
       <c r="C311" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="D311" t="s">
         <v>303</v>
       </c>
       <c r="E311" t="s">
@@ -10694,12 +10693,12 @@
         <v>468</v>
       </c>
       <c r="H311" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
-        <f>LEN(D312)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B312" t="s">
@@ -10718,12 +10717,12 @@
         <v>469</v>
       </c>
       <c r="H312" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
-        <f>LEN(D313)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B313" t="s">
@@ -10742,12 +10741,12 @@
         <v>470</v>
       </c>
       <c r="H313" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
-        <f>LEN(D314)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B314" t="s">
@@ -10766,12 +10765,12 @@
         <v>471</v>
       </c>
       <c r="H314" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
-        <f>LEN(D315)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B315" t="s">
@@ -10790,12 +10789,12 @@
         <v>472</v>
       </c>
       <c r="H315" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
-        <f>LEN(D316)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B316" t="s">
@@ -10814,12 +10813,12 @@
         <v>473</v>
       </c>
       <c r="H316" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
-        <f>LEN(D317)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B317" t="s">
@@ -10838,12 +10837,12 @@
         <v>474</v>
       </c>
       <c r="H317" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
-        <f>LEN(D318)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B318" t="s">
@@ -10862,12 +10861,12 @@
         <v>475</v>
       </c>
       <c r="H318" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
-        <f>LEN(D319)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B319" t="s">
@@ -10886,12 +10885,12 @@
         <v>476</v>
       </c>
       <c r="H319" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
-        <f>LEN(D320)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B320" t="s">
@@ -10910,12 +10909,12 @@
         <v>477</v>
       </c>
       <c r="H320" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
-        <f>LEN(D321)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B321" t="s">
@@ -10928,18 +10927,18 @@
         <v>279</v>
       </c>
       <c r="E321" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G321" t="s">
         <v>478</v>
       </c>
       <c r="H321" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
-        <f>LEN(D322)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B322" t="s">
@@ -10952,18 +10951,18 @@
         <v>310</v>
       </c>
       <c r="E322" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G322" t="s">
         <v>479</v>
       </c>
       <c r="H322" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
-        <f>LEN(D323)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B323" t="s">
@@ -10982,12 +10981,12 @@
         <v>480</v>
       </c>
       <c r="H323" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
-        <f>LEN(D324)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B324" t="s">
@@ -11006,12 +11005,12 @@
         <v>481</v>
       </c>
       <c r="H324" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
-        <f>LEN(D325)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B325" t="s">
@@ -11030,12 +11029,12 @@
         <v>482</v>
       </c>
       <c r="H325" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
-        <f>LEN(D326)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B326" t="s">
@@ -11054,12 +11053,12 @@
         <v>483</v>
       </c>
       <c r="H326" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
-        <f>LEN(D327)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B327" t="s">
@@ -11078,12 +11077,12 @@
         <v>484</v>
       </c>
       <c r="H327" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
-        <f>LEN(D328)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B328" t="s">
@@ -11102,12 +11101,12 @@
         <v>485</v>
       </c>
       <c r="H328" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
-        <f>LEN(D329)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B329" t="s">
@@ -11126,12 +11125,12 @@
         <v>486</v>
       </c>
       <c r="H329" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
-        <f>LEN(D330)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B330" t="s">
@@ -11150,12 +11149,12 @@
         <v>487</v>
       </c>
       <c r="H330" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
-        <f>LEN(D331)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B331" t="s">
@@ -11174,12 +11173,12 @@
         <v>488</v>
       </c>
       <c r="H331" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
-        <f>LEN(D332)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B332" t="s">
@@ -11198,12 +11197,12 @@
         <v>489</v>
       </c>
       <c r="H332" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
-        <f>LEN(D333)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B333" t="s">
@@ -11222,12 +11221,12 @@
         <v>490</v>
       </c>
       <c r="H333" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
-        <f>LEN(D334)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B334" t="s">
@@ -11246,12 +11245,12 @@
         <v>510</v>
       </c>
       <c r="H334" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
-        <f>LEN(D335)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B335" t="s">
@@ -11270,12 +11269,12 @@
         <v>537</v>
       </c>
       <c r="H335" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
-        <f>LEN(D336)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="B336" t="s">
@@ -11294,12 +11293,12 @@
         <v>538</v>
       </c>
       <c r="H336" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
-        <f>3*(LEN(D337)-LEN(SUBSTITUTE(D337,"|","")))+LEN(D337)+F337</f>
+        <f t="shared" ref="A337:A344" si="14">3*(LEN(D337)-LEN(SUBSTITUTE(D337,"|","")))+LEN(D337)+F337</f>
         <v>4</v>
       </c>
       <c r="B337" t="s">
@@ -11318,12 +11317,12 @@
         <v>580</v>
       </c>
       <c r="H337" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
-        <f>3*(LEN(D338)-LEN(SUBSTITUTE(D338,"|","")))+LEN(D338)+F338</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B338" t="s">
@@ -11342,12 +11341,12 @@
         <v>581</v>
       </c>
       <c r="H338" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
-        <f>3*(LEN(D339)-LEN(SUBSTITUTE(D339,"|","")))+LEN(D339)+F339</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B339" t="s">
@@ -11366,12 +11365,12 @@
         <v>583</v>
       </c>
       <c r="H339" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
-        <f>3*(LEN(D340)-LEN(SUBSTITUTE(D340,"|","")))+LEN(D340)+F340</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B340" t="s">
@@ -11390,12 +11389,12 @@
         <v>584</v>
       </c>
       <c r="H340" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
-        <f>3*(LEN(D341)-LEN(SUBSTITUTE(D341,"|","")))+LEN(D341)+F341</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B341" t="s">
@@ -11414,12 +11413,12 @@
         <v>593</v>
       </c>
       <c r="H341" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
-        <f>3*(LEN(D342)-LEN(SUBSTITUTE(D342,"|","")))+LEN(D342)+F342</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B342" t="s">
@@ -11438,12 +11437,12 @@
         <v>598</v>
       </c>
       <c r="H342" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
-        <f>3*(LEN(D343)-LEN(SUBSTITUTE(D343,"|","")))+LEN(D343)+F343</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B343" t="s">
@@ -11462,12 +11461,12 @@
         <v>599</v>
       </c>
       <c r="H343" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
-        <f>3*(LEN(D344)-LEN(SUBSTITUTE(D344,"|","")))+LEN(D344)+F344</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B344" t="s">
@@ -11486,12 +11485,12 @@
         <v>607</v>
       </c>
       <c r="H344" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
-        <f>LEN(D345)</f>
+        <f t="shared" ref="A345:A372" si="15">LEN(D345)</f>
         <v>4</v>
       </c>
       <c r="B345" t="s">
@@ -11507,151 +11506,151 @@
         <v>8</v>
       </c>
       <c r="G345" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H345" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
-        <f>LEN(D346)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C346" t="s">
         <v>30</v>
       </c>
       <c r="D346" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
       </c>
       <c r="G346" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H346" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
-        <f>LEN(D347)</f>
+        <f t="shared" ref="A347" si="16">LEN(D347)</f>
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="C347" t="s">
         <v>30</v>
       </c>
       <c r="D347" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
       </c>
       <c r="G347" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="H347" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
-        <f>LEN(D348)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>649</v>
+        <v>764</v>
       </c>
       <c r="C348" t="s">
         <v>30</v>
       </c>
       <c r="D348" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E348" t="s">
         <v>8</v>
       </c>
       <c r="G348" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H348" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
-        <f>LEN(D349)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="C349" t="s">
         <v>30</v>
       </c>
       <c r="D349" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
       </c>
       <c r="G349" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H349" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
-        <f>LEN(D350)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>343</v>
+        <v>673</v>
       </c>
       <c r="C350" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D350" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
       <c r="E350" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="G350" t="s">
-        <v>496</v>
+        <v>738</v>
       </c>
       <c r="H350" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
-        <f>LEN(D351)</f>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="B351" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
       </c>
       <c r="D351" t="s">
-        <v>327</v>
+        <v>747</v>
       </c>
       <c r="E351" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="G351" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H351" t="s">
         <v>746</v>
@@ -11659,79 +11658,79 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
-        <f>LEN(D352)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B352" t="s">
         <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D352" t="s">
-        <v>21</v>
+        <v>327</v>
       </c>
       <c r="E352" t="s">
         <v>8</v>
       </c>
       <c r="G352" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H352" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
-        <f>LEN(D353)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B353" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="C353" t="s">
         <v>30</v>
       </c>
       <c r="D353" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="E353" t="s">
         <v>8</v>
       </c>
       <c r="G353" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H353" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
-        <f>LEN(D354)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B354" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C354" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D354" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E354" t="s">
         <v>8</v>
       </c>
       <c r="G354" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H354" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
-        <f>LEN(D355)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B355" t="s">
@@ -11741,69 +11740,69 @@
         <v>7</v>
       </c>
       <c r="D355" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E355" t="s">
         <v>8</v>
       </c>
       <c r="G355" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H355" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
-        <f>LEN(D356)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B356" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="C356" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D356" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E356" t="s">
         <v>8</v>
       </c>
       <c r="G356" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H356" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
-        <f>LEN(D357)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B357" t="s">
         <v>329</v>
       </c>
       <c r="C357" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D357" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
       </c>
       <c r="G357" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H357" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
-        <f>LEN(D358)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B358" t="s">
@@ -11813,21 +11812,21 @@
         <v>7</v>
       </c>
       <c r="D358" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E358" t="s">
         <v>8</v>
       </c>
       <c r="G358" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H358" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
-        <f>LEN(D359)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B359" t="s">
@@ -11837,21 +11836,21 @@
         <v>7</v>
       </c>
       <c r="D359" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E359" t="s">
         <v>8</v>
       </c>
       <c r="G359" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H359" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
-        <f>LEN(D360)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B360" t="s">
@@ -11861,69 +11860,69 @@
         <v>7</v>
       </c>
       <c r="D360" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E360" t="s">
         <v>8</v>
       </c>
       <c r="G360" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H360" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
-        <f>LEN(D361)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B361" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
       </c>
       <c r="D361" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E361" t="s">
         <v>8</v>
       </c>
       <c r="G361" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H361" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
-        <f>LEN(D362)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B362" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="C362" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D362" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
       </c>
       <c r="G362" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H362" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
-        <f>LEN(D363)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B363" t="s">
@@ -11933,109 +11932,109 @@
         <v>30</v>
       </c>
       <c r="D363" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
       </c>
       <c r="G363" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H363" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
-        <f>LEN(D364)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B364" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="C364" t="s">
         <v>30</v>
       </c>
       <c r="D364" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
       </c>
       <c r="G364" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H364" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
-        <f>LEN(D365)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B365" t="s">
         <v>320</v>
       </c>
       <c r="C365" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D365" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
       </c>
       <c r="G365" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H365" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
-        <f>LEN(D366)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>320</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
       </c>
       <c r="D366" t="s">
-        <v>512</v>
+        <v>336</v>
       </c>
       <c r="E366" t="s">
         <v>8</v>
       </c>
       <c r="G366" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H366" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
-        <f>LEN(D367)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B367" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
       </c>
       <c r="D367" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
       </c>
       <c r="G367" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H367" t="s">
         <v>746</v>
@@ -12043,55 +12042,55 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
-        <f>LEN(D368)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B368" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
       </c>
       <c r="D368" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E368" t="s">
-        <v>749</v>
+        <v>8</v>
       </c>
       <c r="G368" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H368" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
-        <f>LEN(D369)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B369" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C369" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D369" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="E369" t="s">
-        <v>8</v>
+        <v>748</v>
       </c>
       <c r="G369" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="H369" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
-        <f>LEN(D370)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B370" t="s">
@@ -12101,61 +12100,61 @@
         <v>30</v>
       </c>
       <c r="D370" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
       </c>
       <c r="G370" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H370" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
-        <f>LEN(D371)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B371" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C371" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D371" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E371" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="G371" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="H371" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
-        <f>3*(LEN(D372)-LEN(SUBSTITUTE(D372,"|","")))+LEN(D372)+F372</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C372" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D372" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E372" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="G372" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="H372" t="s">
         <v>746</v>
@@ -12163,47 +12162,47 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
-        <f>3*(LEN(D373)-LEN(SUBSTITUTE(D373,"|","")))+LEN(D373)+F373</f>
+        <f t="shared" ref="A373:A387" si="17">3*(LEN(D373)-LEN(SUBSTITUTE(D373,"|","")))+LEN(D373)+F373</f>
         <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C373" t="s">
         <v>30</v>
       </c>
       <c r="D373" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
       </c>
       <c r="G373" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H373" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
-        <f>3*(LEN(D374)-LEN(SUBSTITUTE(D374,"|","")))+LEN(D374)+F374</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C374" t="s">
         <v>30</v>
       </c>
       <c r="D374" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
       </c>
       <c r="G374" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H374" t="s">
         <v>746</v>
@@ -12211,23 +12210,23 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
-        <f>3*(LEN(D375)-LEN(SUBSTITUTE(D375,"|","")))+LEN(D375)+F375</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B375" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C375" t="s">
         <v>30</v>
       </c>
       <c r="D375" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
       </c>
       <c r="G375" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H375" t="s">
         <v>745</v>
@@ -12235,215 +12234,215 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
-        <f>3*(LEN(D376)-LEN(SUBSTITUTE(D376,"|","")))+LEN(D376)+F376</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>740</v>
+        <v>560</v>
       </c>
       <c r="C376" t="s">
         <v>30</v>
       </c>
       <c r="D376" t="s">
-        <v>740</v>
+        <v>560</v>
       </c>
       <c r="E376" t="s">
         <v>8</v>
       </c>
       <c r="G376" t="s">
-        <v>684</v>
+        <v>594</v>
       </c>
       <c r="H376" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
-        <f>3*(LEN(D377)-LEN(SUBSTITUTE(D377,"|","")))+LEN(D377)+F377</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C377" t="s">
         <v>30</v>
       </c>
       <c r="D377" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E377" t="s">
         <v>8</v>
       </c>
       <c r="G377" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H377" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
-        <f>3*(LEN(D378)-LEN(SUBSTITUTE(D378,"|","")))+LEN(D378)+F378</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B378" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C378" t="s">
         <v>30</v>
       </c>
       <c r="D378" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E378" t="s">
         <v>8</v>
       </c>
       <c r="G378" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H378" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
-        <f>3*(LEN(D379)-LEN(SUBSTITUTE(D379,"|","")))+LEN(D379)+F379</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B379" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C379" t="s">
         <v>30</v>
       </c>
       <c r="D379" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
       </c>
       <c r="G379" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H379" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
-        <f>3*(LEN(D380)-LEN(SUBSTITUTE(D380,"|","")))+LEN(D380)+F380</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B380" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C380" t="s">
         <v>30</v>
       </c>
       <c r="D380" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
       </c>
       <c r="G380" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H380" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
-        <f>3*(LEN(D381)-LEN(SUBSTITUTE(D381,"|","")))+LEN(D381)+F381</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B381" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C381" t="s">
         <v>30</v>
       </c>
       <c r="D381" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
       </c>
       <c r="G381" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H381" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
-        <f>3*(LEN(D382)-LEN(SUBSTITUTE(D382,"|","")))+LEN(D382)+F382</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B382" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C382" t="s">
         <v>30</v>
       </c>
       <c r="D382" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E382" t="s">
-        <v>757</v>
+        <v>8</v>
       </c>
       <c r="G382" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H382" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
-        <f>3*(LEN(D383)-LEN(SUBSTITUTE(D383,"|","")))+LEN(D383)+F383</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B383" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C383" t="s">
         <v>30</v>
       </c>
       <c r="D383" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E383" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="G383" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H383" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
-        <f>3*(LEN(D384)-LEN(SUBSTITUTE(D384,"|","")))+LEN(D384)+F384</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B384" t="s">
-        <v>633</v>
+        <v>754</v>
       </c>
       <c r="C384" t="s">
         <v>30</v>
       </c>
       <c r="D384" t="s">
-        <v>633</v>
+        <v>754</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
       </c>
       <c r="G384" t="s">
-        <v>523</v>
+        <v>683</v>
       </c>
       <c r="H384" t="s">
         <v>746</v>
@@ -12451,56 +12450,79 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
-        <f>3*(LEN(D385)-LEN(SUBSTITUTE(D385,"|","")))+LEN(D385)+F385</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B385" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="C385" t="s">
         <v>30</v>
       </c>
       <c r="D385" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="E385" t="s">
         <v>8</v>
       </c>
       <c r="G385" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H385" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
-        <f>3*(LEN(D386)-LEN(SUBSTITUTE(D386,"|","")))+LEN(D386)+F386</f>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B386" t="s">
+        <v>655</v>
+      </c>
+      <c r="C386" t="s">
+        <v>30</v>
+      </c>
+      <c r="D386" t="s">
+        <v>655</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+      <c r="G386" t="s">
+        <v>524</v>
+      </c>
+      <c r="H386" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B387" t="s">
         <v>9</v>
       </c>
-      <c r="C386" t="s">
-        <v>30</v>
-      </c>
-      <c r="D386" t="s">
+      <c r="C387" t="s">
+        <v>30</v>
+      </c>
+      <c r="D387" t="s">
         <v>341</v>
       </c>
-      <c r="E386" t="s">
-        <v>8</v>
-      </c>
-      <c r="G386" t="s">
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+      <c r="G387" t="s">
         <v>507</v>
       </c>
-      <c r="H386" t="s">
-        <v>746</v>
+      <c r="H387" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D385" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H386">
-    <sortCondition descending="1" ref="A2:A386"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H387">
+    <sortCondition descending="1" ref="A2:A387"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
